--- a/Symphony/2021/Others/Document/Final/Mugdho Corporation Fixed Assets.xlsx
+++ b/Symphony/2021/Others/Document/Final/Mugdho Corporation Fixed Assets.xlsx
@@ -459,7 +459,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
